--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\new\data-driven cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\data-driven cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143C4C0B-E53B-4C43-9274-AB77F2670218}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E817E0D3-59F7-464E-B4BB-A97B5F7B66DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>what</t>
   </si>
@@ -80,6 +80,72 @@
   </si>
   <si>
     <t>Annual Meeting of the 'Paläontologische Gesellschaft'</t>
+  </si>
+  <si>
+    <t>outreach</t>
+  </si>
+  <si>
+    <t>“Markttage des Wissens” (Knowledge market days)</t>
+  </si>
+  <si>
+    <t>Girl's day</t>
+  </si>
+  <si>
+    <t>Mädchen-und-Technik Praktikum (Girls and technology)</t>
+  </si>
+  <si>
+    <t>2020-present</t>
+  </si>
+  <si>
+    <t>2019-present</t>
+  </si>
+  <si>
+    <t>Lange Nacht der Wissenschaften (co-organiser for the Geozentrum)</t>
+  </si>
+  <si>
+    <t>Member of the translation and instagram team</t>
+  </si>
+  <si>
+    <t>International Coral Reef Society</t>
+  </si>
+  <si>
+    <t>Climate Change Action Team</t>
+  </si>
+  <si>
+    <t>Leader of the social media team</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>New York Times</t>
+  </si>
+  <si>
+    <t>Decolonizing the Hunt for Dinosaurs and Other Fossils (by Asher Elbein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top of Mind with Julie Rose </t>
+  </si>
+  <si>
+    <t>[Podcast] Episode 340: A new Parasaurolophus-like crested dinosaur</t>
+  </si>
+  <si>
+    <t>I Know Dino</t>
+  </si>
+  <si>
+    <t>[Podcast] Decolonising Paleontology</t>
+  </si>
+  <si>
+    <t>This ancient shark fossil is exquisite. But some researchers wonder if they’ll be able to study it</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[in German] "Hat uns sehr verblüfft": Forscher stellen Wissen um gefährdete Korallenarten auf den Kopf </t>
+  </si>
+  <si>
+    <t>inFranken.de</t>
   </si>
 </sst>
 </file>
@@ -563,8 +629,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,13 +987,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1038,6 +1108,174 @@
       </c>
       <c r="D8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44277</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44301</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44336</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
